--- a/medicine/Enfance/Claude_Raucy/Claude_Raucy.xlsx
+++ b/medicine/Enfance/Claude_Raucy/Claude_Raucy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Raucy Écouter, né le 15 mai 1939 à Saint-Mard (province de Luxembourg) et mort le 30 janvier 2024 à Liège, est un écrivain et poète belge francophone.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Raucy naît le 15 mai 1939 à Saint-Mard[1],[2]. Après des études à l’athénée royal de Virton puis à l'Université de Liège, il rejoint l’École normale de Nivelles pour devenir enseignant[3].
-En 1959, il publie son premier recueil de poésie Les Poignets ouverts[4],[5]. Passionné de théâtre, il fonde "les compagnons d'Athéna", une troupe scolaire[6].
-Diplômé en 1961, il retourne à Virton comme professeur de français. En 1970, il est récipiendaire du prix Nicole Houssa décerné par l’Académie royale de langue et de littérature françaises de Belgique pour Maraudes[7]. En 1996, il abandonne l'enseignement pour se consacrer entièrement à l'écriture[8]. En 1997, il entre à l’Académie luxembourgeoise, dont il sera secrétaire perpétuel[7].
-En 1990, il est lauréat du prix Baron de Thysebaert pour L’Auberge de l’Antoinette[9].
-Il meurt le 30 janvier 2024 à l'âge 84 ans[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Raucy naît le 15 mai 1939 à Saint-Mard,. Après des études à l’athénée royal de Virton puis à l'Université de Liège, il rejoint l’École normale de Nivelles pour devenir enseignant.
+En 1959, il publie son premier recueil de poésie Les Poignets ouverts,. Passionné de théâtre, il fonde "les compagnons d'Athéna", une troupe scolaire.
+Diplômé en 1961, il retourne à Virton comme professeur de français. En 1970, il est récipiendaire du prix Nicole Houssa décerné par l’Académie royale de langue et de littérature françaises de Belgique pour Maraudes. En 1996, il abandonne l'enseignement pour se consacrer entièrement à l'écriture. En 1997, il entre à l’Académie luxembourgeoise, dont il sera secrétaire perpétuel.
+En 1990, il est lauréat du prix Baron de Thysebaert pour L’Auberge de l’Antoinette.
+Il meurt le 30 janvier 2024 à l'âge 84 ans.
 </t>
         </is>
       </c>
@@ -548,35 +562,74 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-Les Poignets ouverts, La Dryade, 1959
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les Poignets ouverts, La Dryade, 1959
 Maraudes, La Dryade, 1970
 Sens unique, La Dryade, 1974
 Les Noires Épines, La Dryade, 1976
 Le Mur des Sarrasins, La Dryade, 1976
-Le Doigt tendu[11], Signe de Piste, Paris, 1989 (no 144),réédition Éd. Mijade, 2000 - 2015 - 2019[12].
+Le Doigt tendu, Signe de Piste, Paris, 1989 (no 144),réédition Éd. Mijade, 2000 - 2015 - 2019.
 Le Violon de la rue Lauriston
 Les Mirabelles auront des ailes
 Le Concerto pour la main gauche
 Tornade sur Venise
 Plus loin que la Lune rousse
 Le Compagnon rouge
-Le Temps des cerises[13], Duculot, 1984
+Le Temps des cerises, Duculot, 1984
 Fous pas le camp, Nicolas ! Éditions Mémor, coll. « Couleurs », 2000, 117 p..
 Un air tzigane, Memor, coll. « Couleurs », 2002
 Le Garçon du Wannsee, Memor, coll. « Couleurs », 2002  (ISBN 2-930133-72-4)
 Les Renards de Perros-Guirec, Éditions Averbode, 2004
-Cocomero[13], Éditions de la page, 2004,réédition Mijade, 2010.
+Cocomero, Éditions de la page, 2004,réédition Mijade, 2010.
 Des Cerfs-volants blessés
 Le Temps des noyaux (coécrit avec Aurélien Dony)
 Écrase, Négus
 Hubert Goffin, chevalier de la mine, Commune d'Ans, 2012
-La Sonatine de Clementi, M.E.O., 2017, 188p[14].
+La Sonatine de Clementi, M.E.O., 2017, 188p.
 L'Os perdu
 Où est tu Yazid ?
-Les Orages possibles, M.E.O., 2021[15].
-Bande dessinée
-Les Aventures du Djean d'Mâdy en Gaume[16], Chauvehaid, juin 2009Scénario : Claude Raucy - Dessin : Alain Baudson - Couleurs : quadrichromie</t>
+Les Orages possibles, M.E.O., 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude_Raucy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude_Raucy</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Aventures du Djean d'Mâdy en Gaume, Chauvehaid, juin 2009Scénario : Claude Raucy - Dessin : Alain Baudson - Couleurs : quadrichromie</t>
         </is>
       </c>
     </row>
